--- a/results/comparaison/WM/retardance/mean_normalized.xlsx
+++ b/results/comparaison/WM/retardance/mean_normalized.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -954,603 +966,1449 @@
       <c r="CS2">
         <v>1</v>
       </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6628916681909156</v>
+        <v>0.6596164300868895</v>
+      </c>
+      <c r="C3">
+        <v>0.2750697566621275</v>
+      </c>
+      <c r="D3">
+        <v>0.218617779960306</v>
       </c>
       <c r="E3">
-        <v>0.6386659170685351</v>
+        <v>0.7560071020516819</v>
       </c>
       <c r="F3">
-        <v>0.4224630238041431</v>
+        <v>0.6202453698442096</v>
+      </c>
+      <c r="G3">
+        <v>0.5539178791925978</v>
       </c>
       <c r="H3">
-        <v>0.6622245916247171</v>
+        <v>0.4121379206582231</v>
       </c>
       <c r="I3">
-        <v>0.518128128836164</v>
+        <v>0.3909394356561944</v>
+      </c>
+      <c r="J3">
+        <v>0.6391000759710765</v>
       </c>
       <c r="K3">
-        <v>0.734774228134725</v>
+        <v>0.5119910230901532</v>
+      </c>
+      <c r="L3">
+        <v>0.3777626530696848</v>
       </c>
       <c r="M3">
-        <v>0.657540129933969</v>
+        <v>0.6468228448743192</v>
       </c>
       <c r="N3">
-        <v>0.6882324787376252</v>
+        <v>0.6695315946431453</v>
       </c>
       <c r="O3">
-        <v>0.6959408263511555</v>
+        <v>0.9699268182424912</v>
       </c>
       <c r="P3">
-        <v>0.6304161067376705</v>
+        <v>0.6648990502500237</v>
+      </c>
+      <c r="Q3">
+        <v>0.6927756098245964</v>
+      </c>
+      <c r="R3">
+        <v>0.5916634043685466</v>
       </c>
       <c r="S3">
-        <v>0.5370841676634219</v>
+        <v>0.4919371236313644</v>
+      </c>
+      <c r="T3">
+        <v>0.3852716117354509</v>
+      </c>
+      <c r="U3">
+        <v>1.586114091930268</v>
+      </c>
+      <c r="V3">
+        <v>0.4380440314036381</v>
       </c>
       <c r="W3">
-        <v>0.4924977298761188</v>
+        <v>0.4481298631035001</v>
+      </c>
+      <c r="X3">
+        <v>0.8374903488216512</v>
       </c>
       <c r="Y3">
-        <v>0.7449848499511541</v>
+        <v>0.7362348204128863</v>
       </c>
       <c r="Z3">
-        <v>1.003484667215343</v>
+        <v>1.013006972164608</v>
       </c>
       <c r="AA3">
-        <v>0.5608538399660962</v>
+        <v>0.6669411438106152</v>
       </c>
       <c r="AB3">
-        <v>0.8769386480378036</v>
+        <v>0.4965211916645927</v>
+      </c>
+      <c r="AC3">
+        <v>0.5333522433921785</v>
+      </c>
+      <c r="AD3">
+        <v>0.8368491991554565</v>
+      </c>
+      <c r="AF3">
+        <v>0.9428800853610894</v>
+      </c>
+      <c r="AG3">
+        <v>0.6771300837621445</v>
+      </c>
+      <c r="AH3">
+        <v>0.3122990849427792</v>
+      </c>
+      <c r="AI3">
+        <v>0.702744322686688</v>
+      </c>
+      <c r="AJ3">
+        <v>0.5879247061682787</v>
+      </c>
+      <c r="AL3">
+        <v>0.5266267795893724</v>
+      </c>
+      <c r="AM3">
+        <v>0.8108726449754581</v>
+      </c>
+      <c r="AN3">
+        <v>0.5772371251564533</v>
+      </c>
+      <c r="AO3">
+        <v>0.5640459036119311</v>
+      </c>
+      <c r="AP3">
+        <v>0.9856860134937548</v>
       </c>
       <c r="AQ3">
-        <v>0.8597123760260448</v>
+        <v>0.6709791892762802</v>
       </c>
       <c r="AR3">
-        <v>0.8021616481366617</v>
+        <v>0.3646392707119737</v>
       </c>
       <c r="AS3">
-        <v>0.7752912927170382</v>
+        <v>0.9747778608557659</v>
       </c>
       <c r="AT3">
-        <v>0.8228592606525312</v>
+        <v>0.6919987130070037</v>
       </c>
       <c r="AU3">
-        <v>0.9519709961488841</v>
+        <v>0.353122908879372</v>
+      </c>
+      <c r="AV3">
+        <v>0.7792092211315362</v>
       </c>
       <c r="AX3">
-        <v>0.719133772127315</v>
+        <v>0.4460694359478714</v>
+      </c>
+      <c r="AY3">
+        <v>0.4303675099801045</v>
+      </c>
+      <c r="AZ3">
+        <v>1.004803879617147</v>
+      </c>
+      <c r="BA3">
+        <v>0.5568510526958186</v>
       </c>
       <c r="BB3">
-        <v>0.9475887931616713</v>
+        <v>0.8244565174586818</v>
       </c>
       <c r="BC3">
-        <v>0.8868328313730572</v>
+        <v>0.3508684225365125</v>
+      </c>
+      <c r="BD3">
+        <v>0.6084493279196548</v>
+      </c>
+      <c r="BE3">
+        <v>0.376036280627322</v>
       </c>
       <c r="BF3">
-        <v>0.5447802163717629</v>
+        <v>0.6314137699857632</v>
+      </c>
+      <c r="BG3">
+        <v>0.7923976197799527</v>
+      </c>
+      <c r="BH3">
+        <v>0.6323562494279774</v>
       </c>
       <c r="BI3">
-        <v>0.8863734168814832</v>
+        <v>0.7202870431004985</v>
       </c>
       <c r="BJ3">
-        <v>0.5312139845001937</v>
+        <v>0.4615213092060212</v>
       </c>
       <c r="BK3">
-        <v>0.8747284332796735</v>
+        <v>0.362479550171691</v>
+      </c>
+      <c r="BM3">
+        <v>0.576642470680886</v>
+      </c>
+      <c r="BN3">
+        <v>0.3438295967318115</v>
       </c>
       <c r="BO3">
-        <v>0.6016887867377494</v>
+        <v>0.8740278859588384</v>
       </c>
       <c r="BP3">
-        <v>0.6828441824047551</v>
+        <v>1.254137639540651</v>
       </c>
       <c r="BQ3">
-        <v>0.696437994651966</v>
+        <v>0.8944158823139633</v>
       </c>
       <c r="BR3">
-        <v>0.5917003173801325</v>
+        <v>0.6320745645540367</v>
       </c>
       <c r="BS3">
-        <v>0.6834040508604032</v>
+        <v>0.8777484146723941</v>
+      </c>
+      <c r="BT3">
+        <v>0.7966997379384199</v>
       </c>
       <c r="BU3">
-        <v>0.904878881198966</v>
+        <v>0.6745312289686483</v>
       </c>
       <c r="BV3">
-        <v>0.7529458024148739</v>
+        <v>0.3314944035111158</v>
+      </c>
+      <c r="BW3">
+        <v>1.045999402796526</v>
+      </c>
+      <c r="BX3">
+        <v>0.6225836936554686</v>
+      </c>
+      <c r="BY3">
+        <v>1.13765372074297</v>
+      </c>
+      <c r="BZ3">
+        <v>0.4584538937393851</v>
+      </c>
+      <c r="CA3">
+        <v>0.5476251243509739</v>
+      </c>
+      <c r="CB3">
+        <v>1.139170003683477</v>
+      </c>
+      <c r="CC3">
+        <v>0.6848536313626841</v>
+      </c>
+      <c r="CD3">
+        <v>0.8307480172371462</v>
+      </c>
+      <c r="CE3">
+        <v>0.3181712447894654</v>
+      </c>
+      <c r="CF3">
+        <v>1.495056856630779</v>
       </c>
       <c r="CG3">
-        <v>1.411691760143095</v>
+        <v>2.300055934356752</v>
+      </c>
+      <c r="CH3">
+        <v>0.8197284069392818</v>
+      </c>
+      <c r="CI3">
+        <v>0.7580320280390469</v>
       </c>
       <c r="CK3">
-        <v>0.9161702108125988</v>
+        <v>0.9413819001031918</v>
+      </c>
+      <c r="CL3">
+        <v>0.4215675630174058</v>
+      </c>
+      <c r="CM3">
+        <v>1.419662370457864</v>
       </c>
       <c r="CN3">
-        <v>1.12144491478187</v>
+        <v>1.297119405072142</v>
+      </c>
+      <c r="CO3">
+        <v>0.8997213198686463</v>
+      </c>
+      <c r="CP3">
+        <v>1.243239361073146</v>
+      </c>
+      <c r="CQ3">
+        <v>1.541781950340724</v>
+      </c>
+      <c r="CR3">
+        <v>0.583334384112307</v>
+      </c>
+      <c r="CS3">
+        <v>2.374188672717646</v>
+      </c>
+      <c r="CT3">
+        <v>0.2704337474574673</v>
+      </c>
+      <c r="CU3">
+        <v>0.3026205849796286</v>
+      </c>
+      <c r="CV3">
+        <v>0.647851517619255</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6549660134536829</v>
+        <v>0.6427725898805428</v>
+      </c>
+      <c r="C4">
+        <v>0.3987239565592643</v>
+      </c>
+      <c r="D4">
+        <v>0.2716582222744956</v>
       </c>
       <c r="E4">
-        <v>0.6689730105839268</v>
+        <v>0.6495713566305427</v>
       </c>
       <c r="F4">
-        <v>0.4269935374475023</v>
+        <v>0.6247541936505523</v>
       </c>
       <c r="H4">
-        <v>0.7487984410003361</v>
+        <v>0.4041787167145414</v>
       </c>
       <c r="I4">
-        <v>0.7103051390936318</v>
+        <v>0.7138616878314062</v>
+      </c>
+      <c r="J4">
+        <v>0.7134864267222959</v>
       </c>
       <c r="K4">
-        <v>0.8478902585985673</v>
+        <v>0.701722543334083</v>
+      </c>
+      <c r="L4">
+        <v>0.4822722351732014</v>
       </c>
       <c r="M4">
-        <v>0.6973585131584832</v>
+        <v>0.6836057123059106</v>
       </c>
       <c r="N4">
-        <v>0.7612874021118855</v>
+        <v>0.747292983306356</v>
       </c>
       <c r="O4">
-        <v>0.7522723015324189</v>
+        <v>0.8196282205875433</v>
       </c>
       <c r="P4">
-        <v>0.9357129230594234</v>
+        <v>0.7220283396445982</v>
+      </c>
+      <c r="Q4">
+        <v>0.7258339387372937</v>
+      </c>
+      <c r="R4">
+        <v>0.8884570684776132</v>
       </c>
       <c r="S4">
-        <v>0.6372370656243361</v>
+        <v>0.5006449750003368</v>
+      </c>
+      <c r="T4">
+        <v>0.4399172901016706</v>
+      </c>
+      <c r="U4">
+        <v>1.033055888711627</v>
+      </c>
+      <c r="V4">
+        <v>0.4501149511758686</v>
       </c>
       <c r="W4">
-        <v>0.5832411770592529</v>
+        <v>0.5181385364809532</v>
+      </c>
+      <c r="X4">
+        <v>0.6163637185080708</v>
       </c>
       <c r="Y4">
-        <v>0.8234317605166687</v>
+        <v>0.8005554408529161</v>
       </c>
       <c r="Z4">
-        <v>1.169907326465045</v>
+        <v>1.14256465617646</v>
+      </c>
+      <c r="AA4">
+        <v>0.7120720826915268</v>
       </c>
       <c r="AB4">
-        <v>0.5542378723400886</v>
+        <v>0.4791044295247885</v>
+      </c>
+      <c r="AC4">
+        <v>0.6232119215718372</v>
+      </c>
+      <c r="AD4">
+        <v>0.7226211698044712</v>
+      </c>
+      <c r="AF4">
+        <v>0.6565156019526578</v>
+      </c>
+      <c r="AG4">
+        <v>0.8447816641182968</v>
       </c>
       <c r="AH4">
-        <v>0.6285050387278905</v>
+        <v>0.2871675183889327</v>
+      </c>
+      <c r="AI4">
+        <v>0.4671358187363377</v>
       </c>
       <c r="AJ4">
-        <v>0.671241024822491</v>
-      </c>
-      <c r="AK4">
-        <v>0.3795221885651084</v>
+        <v>0.3743483785625074</v>
+      </c>
+      <c r="AL4">
+        <v>0.5720174760538415</v>
       </c>
       <c r="AM4">
-        <v>0.6529596371775783</v>
+        <v>0.9005054953272121</v>
+      </c>
+      <c r="AN4">
+        <v>0.6205200228069349</v>
+      </c>
+      <c r="AO4">
+        <v>0.6349488863899782</v>
+      </c>
+      <c r="AP4">
+        <v>0.9594004906950424</v>
       </c>
       <c r="AQ4">
-        <v>0.6782584054794382</v>
+        <v>0.455167396016881</v>
       </c>
       <c r="AR4">
-        <v>0.5684152523233688</v>
-      </c>
-      <c r="AS4">
-        <v>0.5473077744488146</v>
+        <v>0.3278793476053331</v>
       </c>
       <c r="AT4">
-        <v>0.7473800911032296</v>
+        <v>0.407007996010799</v>
       </c>
       <c r="AU4">
-        <v>0.6807902366647317</v>
-      </c>
-      <c r="AX4">
-        <v>0.5089641026829367</v>
+        <v>0.5495195054794008</v>
+      </c>
+      <c r="AV4">
+        <v>0.632462106108689</v>
+      </c>
+      <c r="AZ4">
+        <v>1.054184612207541</v>
+      </c>
+      <c r="BA4">
+        <v>0.6282414843098979</v>
       </c>
       <c r="BB4">
-        <v>1.095199847578683</v>
+        <v>0.8392942376858401</v>
       </c>
       <c r="BC4">
-        <v>0.849425318448676</v>
+        <v>0.3519522544954843</v>
+      </c>
+      <c r="BD4">
+        <v>0.4824483990910109</v>
+      </c>
+      <c r="BE4">
+        <v>0.4517757106113964</v>
+      </c>
+      <c r="BF4">
+        <v>0.7521406120431746</v>
+      </c>
+      <c r="BG4">
+        <v>0.8190069108423961</v>
+      </c>
+      <c r="BH4">
+        <v>0.5083984868276896</v>
       </c>
       <c r="BI4">
-        <v>0.9395495100880767</v>
+        <v>0.8654645571149191</v>
       </c>
       <c r="BJ4">
-        <v>0.5309778841759576</v>
+        <v>0.4392287422071454</v>
       </c>
       <c r="BK4">
-        <v>0.9437282031678765</v>
+        <v>0.3054625176032196</v>
+      </c>
+      <c r="BL4">
+        <v>0.3990647947662226</v>
+      </c>
+      <c r="BM4">
+        <v>0.5323469874351671</v>
+      </c>
+      <c r="BN4">
+        <v>0.2959558449243688</v>
+      </c>
+      <c r="BO4">
+        <v>0.8928951082126</v>
       </c>
       <c r="BP4">
-        <v>0.7717471907833976</v>
-      </c>
-      <c r="BS4">
-        <v>0.7342692909509426</v>
+        <v>1.455970230525363</v>
+      </c>
+      <c r="BQ4">
+        <v>0.9592059657236117</v>
+      </c>
+      <c r="BR4">
+        <v>0.7032651490006148</v>
+      </c>
+      <c r="BT4">
+        <v>0.9532967848130113</v>
       </c>
       <c r="BU4">
-        <v>1.001601431413324</v>
+        <v>0.8002079512808948</v>
       </c>
       <c r="BV4">
-        <v>0.7674887452343464</v>
+        <v>0.382557303821998</v>
+      </c>
+      <c r="BW4">
+        <v>1.075389411759133</v>
+      </c>
+      <c r="BX4">
+        <v>0.6633698496929099</v>
+      </c>
+      <c r="BY4">
+        <v>1.170048873585976</v>
+      </c>
+      <c r="BZ4">
+        <v>0.4361586823071084</v>
+      </c>
+      <c r="CA4">
+        <v>0.6190417400541502</v>
+      </c>
+      <c r="CB4">
+        <v>1.859169154254373</v>
+      </c>
+      <c r="CC4">
+        <v>0.7750506025261722</v>
+      </c>
+      <c r="CD4">
+        <v>1.044545540208194</v>
+      </c>
+      <c r="CE4">
+        <v>0.3147526771045652</v>
       </c>
       <c r="CF4">
-        <v>1.051491894432207</v>
+        <v>1.649708880499919</v>
+      </c>
+      <c r="CG4">
+        <v>2.001904467268671</v>
       </c>
       <c r="CH4">
-        <v>0.7061999765285393</v>
+        <v>0.7784947624523479</v>
+      </c>
+      <c r="CI4">
+        <v>0.8126483899796912</v>
       </c>
       <c r="CK4">
-        <v>1.031645635750233</v>
+        <v>0.8716029705290226</v>
+      </c>
+      <c r="CL4">
+        <v>0.823878799887685</v>
+      </c>
+      <c r="CM4">
+        <v>1.283774761442884</v>
       </c>
       <c r="CN4">
-        <v>1.275469467107866</v>
+        <v>1.379855906099678</v>
+      </c>
+      <c r="CO4">
+        <v>0.6269294658847371</v>
+      </c>
+      <c r="CP4">
+        <v>1.298931406834053</v>
+      </c>
+      <c r="CQ4">
+        <v>1.740889393586669</v>
+      </c>
+      <c r="CR4">
+        <v>0.3144762566492781</v>
+      </c>
+      <c r="CS4">
+        <v>2.393688854750704</v>
+      </c>
+      <c r="CT4">
+        <v>0.698394900121431</v>
+      </c>
+      <c r="CU4">
+        <v>0.6621559008501576</v>
+      </c>
+      <c r="CV4">
+        <v>0.5363035924447983</v>
+      </c>
+      <c r="CW4">
+        <v>1.126016901250684</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6722556204126391</v>
+        <v>0.6640741593021608</v>
+      </c>
+      <c r="C5">
+        <v>0.4049276806026329</v>
       </c>
       <c r="D5">
-        <v>0.5572771768466572</v>
+        <v>0.1921864353884906</v>
       </c>
       <c r="E5">
-        <v>0.6660152527656847</v>
+        <v>0.5338493550749095</v>
       </c>
       <c r="F5">
-        <v>0.5416996511672465</v>
+        <v>0.6267731598504619</v>
       </c>
       <c r="H5">
-        <v>0.7713610833533738</v>
+        <v>0.5237079663427922</v>
       </c>
       <c r="I5">
-        <v>0.6266432532253243</v>
+        <v>0.4582608532563113</v>
+      </c>
+      <c r="J5">
+        <v>0.7416343385298905</v>
       </c>
       <c r="K5">
-        <v>0.8278418729253555</v>
+        <v>0.6156538470712205</v>
+      </c>
+      <c r="L5">
+        <v>0.2795849607628302</v>
       </c>
       <c r="M5">
-        <v>0.4239374412574599</v>
+        <v>0.3925044921005418</v>
       </c>
       <c r="N5">
-        <v>0.6886372100990826</v>
+        <v>0.7403361339553571</v>
       </c>
       <c r="O5">
-        <v>0.6310957824091489</v>
+        <v>0.6939064849347378</v>
       </c>
       <c r="P5">
-        <v>0.8078917895793657</v>
+        <v>0.6493401500834904</v>
+      </c>
+      <c r="Q5">
+        <v>0.6143907278790286</v>
+      </c>
+      <c r="R5">
+        <v>0.7589060714186334</v>
       </c>
       <c r="S5">
-        <v>0.5863015798533011</v>
+        <v>0.3953274220815091</v>
+      </c>
+      <c r="T5">
+        <v>0.4372944495404543</v>
+      </c>
+      <c r="U5">
+        <v>0.8861737674863902</v>
+      </c>
+      <c r="V5">
+        <v>0.3001962030450815</v>
       </c>
       <c r="W5">
-        <v>0.5333478902280872</v>
+        <v>0.4784411467261866</v>
+      </c>
+      <c r="X5">
+        <v>0.5420727228596898</v>
       </c>
       <c r="Y5">
-        <v>0.8408321767375467</v>
+        <v>0.8320879594510618</v>
       </c>
       <c r="Z5">
-        <v>0.9877636811497468</v>
+        <v>0.9494540296640169</v>
+      </c>
+      <c r="AA5">
+        <v>0.7142893462087938</v>
       </c>
       <c r="AB5">
-        <v>0.7341604276487373</v>
+        <v>0.4199175216915859</v>
+      </c>
+      <c r="AC5">
+        <v>0.5189463942351271</v>
+      </c>
+      <c r="AD5">
+        <v>0.7469714329127117</v>
+      </c>
+      <c r="AF5">
+        <v>0.8557370598402328</v>
+      </c>
+      <c r="AG5">
+        <v>0.6229069956174786</v>
+      </c>
+      <c r="AH5">
+        <v>0.3613853881053747</v>
+      </c>
+      <c r="AI5">
+        <v>0.6164536453850581</v>
+      </c>
+      <c r="AJ5">
+        <v>0.5102019015756666</v>
+      </c>
+      <c r="AL5">
+        <v>0.4597532411301934</v>
+      </c>
+      <c r="AM5">
+        <v>0.6753986619552845</v>
+      </c>
+      <c r="AN5">
+        <v>0.5026855460124666</v>
+      </c>
+      <c r="AO5">
+        <v>0.4232614828078768</v>
+      </c>
+      <c r="AP5">
+        <v>0.9219383004425679</v>
       </c>
       <c r="AQ5">
-        <v>0.8072286069147336</v>
+        <v>0.5235628623858993</v>
       </c>
       <c r="AR5">
-        <v>0.7616385963657044</v>
+        <v>0.3379903220816499</v>
       </c>
       <c r="AS5">
-        <v>0.6506701445993147</v>
+        <v>0.9576990030250322</v>
       </c>
       <c r="AT5">
-        <v>0.7470436346123728</v>
+        <v>0.5827562230010841</v>
       </c>
       <c r="AU5">
-        <v>0.8647343037890145</v>
-      </c>
-      <c r="AX5">
-        <v>0.6301970139323934</v>
+        <v>0.3282871136406738</v>
+      </c>
+      <c r="AV5">
+        <v>0.758518661589381</v>
+      </c>
+      <c r="AY5">
+        <v>0.4192209084986168</v>
+      </c>
+      <c r="AZ5">
+        <v>0.9763682019268632</v>
+      </c>
+      <c r="BA5">
+        <v>0.9754749431226978</v>
       </c>
       <c r="BB5">
-        <v>1.046007829780887</v>
+        <v>0.923624762296702</v>
       </c>
       <c r="BC5">
-        <v>0.6764390835481681</v>
+        <v>0.3276558435553294</v>
+      </c>
+      <c r="BD5">
+        <v>0.4230253313980085</v>
       </c>
       <c r="BE5">
-        <v>0.9311322979115139</v>
+        <v>0.2644802044136991</v>
+      </c>
+      <c r="BF5">
+        <v>0.8428406987090357</v>
+      </c>
+      <c r="BG5">
+        <v>0.6597076252337769</v>
+      </c>
+      <c r="BH5">
+        <v>0.4564701735284408</v>
       </c>
       <c r="BI5">
-        <v>0.9798515073587235</v>
+        <v>0.6958926371235153</v>
+      </c>
+      <c r="BJ5">
+        <v>0.3181337630375597</v>
       </c>
       <c r="BK5">
-        <v>0.8311319724615581</v>
+        <v>0.2761462381885044</v>
+      </c>
+      <c r="BM5">
+        <v>0.4516581732198467</v>
+      </c>
+      <c r="BN5">
+        <v>0.2536294100185055</v>
+      </c>
+      <c r="BO5">
+        <v>1.112554425049502</v>
       </c>
       <c r="BP5">
-        <v>0.6349313378547579</v>
-      </c>
-      <c r="BS5">
-        <v>0.665086019739453</v>
+        <v>1.32794235365167</v>
+      </c>
+      <c r="BQ5">
+        <v>0.8523663774593149</v>
+      </c>
+      <c r="BR5">
+        <v>0.6359680687184114</v>
+      </c>
+      <c r="BT5">
+        <v>0.7723533514932666</v>
       </c>
       <c r="BU5">
-        <v>0.9040038635433406</v>
+        <v>0.563147578663569</v>
       </c>
       <c r="BV5">
-        <v>0.9416421343945248</v>
+        <v>0.367743192009569</v>
+      </c>
+      <c r="BW5">
+        <v>0.9764144836711326</v>
+      </c>
+      <c r="BX5">
+        <v>0.5088671517133092</v>
+      </c>
+      <c r="BY5">
+        <v>1.302934161314635</v>
       </c>
       <c r="BZ5">
-        <v>0.5747859220897263</v>
+        <v>0.4044407196284798</v>
+      </c>
+      <c r="CA5">
+        <v>0.551176292032137</v>
+      </c>
+      <c r="CB5">
+        <v>1.391372039455396</v>
       </c>
       <c r="CC5">
-        <v>0.684216043539432</v>
+        <v>0.8932363173028698</v>
+      </c>
+      <c r="CD5">
+        <v>0.9015734183291215</v>
+      </c>
+      <c r="CE5">
+        <v>0.369998692058518</v>
+      </c>
+      <c r="CF5">
+        <v>2.413644677453169</v>
+      </c>
+      <c r="CG5">
+        <v>2.054398544487605</v>
       </c>
       <c r="CH5">
-        <v>0.8336981539774002</v>
+        <v>0.6921441529450482</v>
+      </c>
+      <c r="CI5">
+        <v>0.886462396877609</v>
       </c>
       <c r="CK5">
-        <v>0.9685248301707693</v>
+        <v>1.09329934678329</v>
+      </c>
+      <c r="CL5">
+        <v>0.3806315948810678</v>
+      </c>
+      <c r="CM5">
+        <v>1.547656512215842</v>
+      </c>
+      <c r="CN5">
+        <v>1.70626049059391</v>
+      </c>
+      <c r="CO5">
+        <v>0.863368241393289</v>
       </c>
       <c r="CP5">
-        <v>0.8266545884221186</v>
+        <v>1.522275008421011</v>
+      </c>
+      <c r="CQ5">
+        <v>2.023960268420875</v>
+      </c>
+      <c r="CR5">
+        <v>0.7199222831017607</v>
       </c>
       <c r="CS5">
-        <v>0.7574565854205472</v>
+        <v>2.656791865414539</v>
+      </c>
+      <c r="CT5">
+        <v>0.3218565201237858</v>
+      </c>
+      <c r="CU5">
+        <v>0.2844711443043562</v>
+      </c>
+      <c r="CV5">
+        <v>0.8961567469667353</v>
+      </c>
+      <c r="CW5">
+        <v>1.37888179685264</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6149640935670595</v>
+        <v>0.6032735334504105</v>
+      </c>
+      <c r="C6">
+        <v>0.7087331560250151</v>
+      </c>
+      <c r="D6">
+        <v>0.3280141461318535</v>
       </c>
       <c r="E6">
-        <v>0.8738943856588687</v>
+        <v>0.628955456495123</v>
       </c>
       <c r="F6">
-        <v>0.8197691462798307</v>
+        <v>0.8294007824746874</v>
       </c>
       <c r="H6">
-        <v>0.8883511357811169</v>
+        <v>0.8029502556635458</v>
       </c>
       <c r="I6">
-        <v>0.8468926883689657</v>
+        <v>0.3395150661291318</v>
+      </c>
+      <c r="J6">
+        <v>0.8691444895090309</v>
       </c>
       <c r="K6">
-        <v>0.8130306886601256</v>
+        <v>0.8341022798771955</v>
+      </c>
+      <c r="L6">
+        <v>0.3448396565097251</v>
       </c>
       <c r="M6">
-        <v>0.3735921547239145</v>
+        <v>0.3296351322533227</v>
       </c>
       <c r="N6">
-        <v>0.8648218558136793</v>
+        <v>0.7043084187608973</v>
+      </c>
+      <c r="O6">
+        <v>0.6369353529082209</v>
       </c>
       <c r="P6">
-        <v>1.021885020068647</v>
+        <v>0.8515505085198448</v>
+      </c>
+      <c r="Q6">
+        <v>0.5340655396566757</v>
+      </c>
+      <c r="R6">
+        <v>0.9999970268202795</v>
       </c>
       <c r="S6">
-        <v>0.5833558561639024</v>
+        <v>0.3805038081928067</v>
+      </c>
+      <c r="T6">
+        <v>0.4124059395944439</v>
+      </c>
+      <c r="U6">
+        <v>1.05722682242087</v>
+      </c>
+      <c r="V6">
+        <v>0.2447483314581308</v>
       </c>
       <c r="W6">
-        <v>0.6794339783651724</v>
+        <v>0.6379035095005605</v>
+      </c>
+      <c r="X6">
+        <v>0.3139436419678395</v>
       </c>
       <c r="Y6">
-        <v>0.8688066109422367</v>
+        <v>0.8512759518775167</v>
       </c>
       <c r="Z6">
-        <v>1.478551243331125</v>
+        <v>1.504808373541225</v>
       </c>
       <c r="AA6">
-        <v>0.6465280128029521</v>
+        <v>0.7599818630870461</v>
       </c>
       <c r="AB6">
-        <v>1.061432690299805</v>
+        <v>0.4872290441658896</v>
+      </c>
+      <c r="AC6">
+        <v>0.6086527595245267</v>
+      </c>
+      <c r="AD6">
+        <v>0.8149570919759014</v>
+      </c>
+      <c r="AF6">
+        <v>0.8669039367080429</v>
+      </c>
+      <c r="AG6">
+        <v>0.6371766197863956</v>
+      </c>
+      <c r="AH6">
+        <v>0.5084085242578789</v>
+      </c>
+      <c r="AI6">
+        <v>0.6149039548370867</v>
+      </c>
+      <c r="AJ6">
+        <v>0.5622350692522108</v>
+      </c>
+      <c r="AK6">
+        <v>0.3633587710125342</v>
+      </c>
+      <c r="AL6">
+        <v>0.6012022961793332</v>
+      </c>
+      <c r="AM6">
+        <v>0.8894366382922037</v>
+      </c>
+      <c r="AN6">
+        <v>0.6817909304458321</v>
+      </c>
+      <c r="AO6">
+        <v>0.5927851206568835</v>
+      </c>
+      <c r="AP6">
+        <v>1.283667660274719</v>
       </c>
       <c r="AQ6">
-        <v>1.092300623549486</v>
+        <v>0.6409535273370299</v>
       </c>
       <c r="AR6">
-        <v>0.7605299127865397</v>
+        <v>0.437075363764962</v>
       </c>
       <c r="AS6">
-        <v>0.8147531997738252</v>
+        <v>1.158860475347042</v>
       </c>
       <c r="AT6">
-        <v>0.8193145789224274</v>
+        <v>0.8969134097367784</v>
       </c>
       <c r="AU6">
-        <v>0.8927909544496092</v>
+        <v>0.3238631051215423</v>
+      </c>
+      <c r="AV6">
+        <v>1.019043081271055</v>
+      </c>
+      <c r="AW6">
+        <v>0.3944084480334184</v>
       </c>
       <c r="AX6">
-        <v>0.637306423644303</v>
+        <v>0.4171794868761372</v>
+      </c>
+      <c r="AY6">
+        <v>0.4203352833637607</v>
       </c>
       <c r="AZ6">
-        <v>0.7038166126649974</v>
+        <v>0.9397984953223878</v>
+      </c>
+      <c r="BA6">
+        <v>0.4877959604679343</v>
       </c>
       <c r="BB6">
-        <v>1.011656783859572</v>
+        <v>0.7448192740575692</v>
+      </c>
+      <c r="BC6">
+        <v>0.3461828565207961</v>
+      </c>
+      <c r="BD6">
+        <v>0.5399354698911674</v>
       </c>
       <c r="BE6">
-        <v>0.8656645993112333</v>
+        <v>0.3395130272072522</v>
+      </c>
+      <c r="BF6">
+        <v>0.6151909126111585</v>
+      </c>
+      <c r="BG6">
+        <v>0.6998267877899237</v>
+      </c>
+      <c r="BH6">
+        <v>0.4160425954867216</v>
       </c>
       <c r="BI6">
-        <v>0.8334621390658697</v>
+        <v>0.6716067855742588</v>
       </c>
       <c r="BJ6">
-        <v>0.6069115816923581</v>
+        <v>0.3991873428915247</v>
       </c>
       <c r="BK6">
-        <v>0.7599048734701419</v>
+        <v>0.2479409763179267</v>
+      </c>
+      <c r="BL6">
+        <v>0.3681029224728333</v>
+      </c>
+      <c r="BM6">
+        <v>0.6350455096558061</v>
+      </c>
+      <c r="BN6">
+        <v>0.327649701208949</v>
+      </c>
+      <c r="BO6">
+        <v>0.9924180080376791</v>
       </c>
       <c r="BP6">
-        <v>0.8076377882829368</v>
+        <v>1.239287703933552</v>
+      </c>
+      <c r="BQ6">
+        <v>0.8911389915179937</v>
       </c>
       <c r="BR6">
-        <v>0.6496815437067729</v>
+        <v>0.6286319264796318</v>
       </c>
       <c r="BS6">
-        <v>0.6886854917254271</v>
+        <v>0.8089608226766335</v>
+      </c>
+      <c r="BT6">
+        <v>0.8329049686199361</v>
       </c>
       <c r="BU6">
-        <v>0.7977738230629914</v>
+        <v>0.7705460341027928</v>
       </c>
       <c r="BV6">
-        <v>0.7310344907103798</v>
+        <v>0.3187035881027072</v>
+      </c>
+      <c r="BW6">
+        <v>0.9178766358127258</v>
+      </c>
+      <c r="BX6">
+        <v>0.6213042284296144</v>
+      </c>
+      <c r="BY6">
+        <v>1.674382505215671</v>
       </c>
       <c r="BZ6">
-        <v>0.5941202410105839</v>
+        <v>0.368560601338963</v>
       </c>
       <c r="CA6">
-        <v>0.8300001461503842</v>
+        <v>0.6196643011148941</v>
+      </c>
+      <c r="CB6">
+        <v>1.345070116868859</v>
       </c>
       <c r="CC6">
-        <v>0.7262308893080848</v>
+        <v>0.8537041613595245</v>
+      </c>
+      <c r="CD6">
+        <v>1.067531095147769</v>
+      </c>
+      <c r="CE6">
+        <v>0.3855715243526492</v>
       </c>
       <c r="CF6">
-        <v>1.330599421130066</v>
+        <v>1.560665805295378</v>
       </c>
       <c r="CG6">
-        <v>1.412113852129181</v>
+        <v>3.267842876848869</v>
       </c>
       <c r="CH6">
-        <v>0.7372524254898263</v>
+        <v>0.7853339679683059</v>
+      </c>
+      <c r="CI6">
+        <v>0.9948725136884379</v>
       </c>
       <c r="CK6">
-        <v>0.873627025550486</v>
+        <v>1.120726531170489</v>
+      </c>
+      <c r="CL6">
+        <v>0.4295406696950033</v>
+      </c>
+      <c r="CM6">
+        <v>1.685923344265143</v>
       </c>
       <c r="CN6">
-        <v>1.435681009312341</v>
+        <v>1.422619841898212</v>
+      </c>
+      <c r="CO6">
+        <v>0.7960711480916705</v>
       </c>
       <c r="CP6">
-        <v>0.6838543960819876</v>
+        <v>1.277553443082354</v>
+      </c>
+      <c r="CQ6">
+        <v>1.334701524783569</v>
       </c>
       <c r="CR6">
-        <v>0.5923541014303094</v>
+        <v>0.6135261067879669</v>
       </c>
       <c r="CS6">
-        <v>0.6545682065819335</v>
+        <v>2.35031069058667</v>
+      </c>
+      <c r="CT6">
+        <v>0.3942665657063804</v>
+      </c>
+      <c r="CU6">
+        <v>0.2704935197373344</v>
+      </c>
+      <c r="CV6">
+        <v>0.7318572258817329</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5859325434238558</v>
+        <v>0.5640332279800341</v>
+      </c>
+      <c r="C7">
+        <v>0.2596241014163383</v>
+      </c>
+      <c r="D7">
+        <v>0.2117406586879184</v>
       </c>
       <c r="E7">
-        <v>0.6982139111435377</v>
+        <v>0.4599327404676755</v>
       </c>
       <c r="F7">
-        <v>0.7473717505717102</v>
+        <v>0.6346139216685225</v>
       </c>
       <c r="H7">
-        <v>0.7676520147996827</v>
+        <v>0.7410356397807843</v>
       </c>
       <c r="I7">
-        <v>0.7021364075161668</v>
+        <v>0.6844889399234558</v>
+      </c>
+      <c r="J7">
+        <v>0.7239634095397768</v>
       </c>
       <c r="K7">
-        <v>0.8908708621285163</v>
+        <v>0.6737606948234108</v>
+      </c>
+      <c r="L7">
+        <v>0.2422764055928028</v>
       </c>
       <c r="M7">
-        <v>0.3743953648605788</v>
+        <v>0.338043569014299</v>
       </c>
       <c r="N7">
-        <v>0.6314279239415248</v>
+        <v>0.7945665401956044</v>
       </c>
       <c r="O7">
-        <v>0.713078224845348</v>
+        <v>0.4522765839214082</v>
       </c>
       <c r="P7">
-        <v>0.7320049137153787</v>
+        <v>0.5674756870240278</v>
+      </c>
+      <c r="Q7">
+        <v>0.7006205925257742</v>
+      </c>
+      <c r="R7">
+        <v>0.620985413278227</v>
       </c>
       <c r="S7">
-        <v>0.7444440089544414</v>
+        <v>0.4954233833408611</v>
+      </c>
+      <c r="T7">
+        <v>0.4495101121836179</v>
+      </c>
+      <c r="U7">
+        <v>0.7508219211466967</v>
+      </c>
+      <c r="V7">
+        <v>0.2767896987965888</v>
       </c>
       <c r="W7">
-        <v>0.5927807225887629</v>
+        <v>0.5281368898053864</v>
+      </c>
+      <c r="X7">
+        <v>0.3982847025825232</v>
       </c>
       <c r="Y7">
-        <v>0.789711080422997</v>
+        <v>0.7517502213835278</v>
       </c>
       <c r="Z7">
-        <v>0.7976554364612085</v>
+        <v>0.7100618900280063</v>
+      </c>
+      <c r="AA7">
+        <v>0.68002055977057</v>
       </c>
       <c r="AB7">
-        <v>0.5576662104910051</v>
+        <v>0.5121187808958023</v>
+      </c>
+      <c r="AC7">
+        <v>0.6335193486296619</v>
+      </c>
+      <c r="AD7">
+        <v>0.6394751085581803</v>
+      </c>
+      <c r="AE7">
+        <v>0.9788492877727506</v>
+      </c>
+      <c r="AF7">
+        <v>0.7286686046901756</v>
+      </c>
+      <c r="AG7">
+        <v>0.960285049209202</v>
+      </c>
+      <c r="AH7">
+        <v>0.4486612787835381</v>
+      </c>
+      <c r="AI7">
+        <v>0.5549110908653812</v>
+      </c>
+      <c r="AJ7">
+        <v>0.4315338738180483</v>
       </c>
       <c r="AK7">
-        <v>0.4861124011976727</v>
+        <v>0.4594054992786979</v>
+      </c>
+      <c r="AL7">
+        <v>0.5155376406621515</v>
+      </c>
+      <c r="AM7">
+        <v>0.7845931204403861</v>
+      </c>
+      <c r="AN7">
+        <v>0.5701132960975878</v>
+      </c>
+      <c r="AO7">
+        <v>0.5915187026975043</v>
+      </c>
+      <c r="AP7">
+        <v>0.8798329918408891</v>
       </c>
       <c r="AQ7">
-        <v>0.6645911530417246</v>
+        <v>0.3239092330631194</v>
       </c>
       <c r="AR7">
-        <v>0.5692484541143819</v>
+        <v>0.4505017975441317</v>
       </c>
       <c r="AS7">
-        <v>0.4651945205327949</v>
+        <v>0.8743676307676163</v>
       </c>
       <c r="AT7">
-        <v>0.6606605361619168</v>
+        <v>0.3871789968943941</v>
       </c>
       <c r="AU7">
-        <v>0.7395574647530523</v>
+        <v>0.4688369668310608</v>
+      </c>
+      <c r="AV7">
+        <v>0.5844002960250879</v>
+      </c>
+      <c r="AW7">
+        <v>0.3922422798823053</v>
       </c>
       <c r="AX7">
-        <v>0.5817856638702044</v>
+        <v>0.5100085354552156</v>
+      </c>
+      <c r="AY7">
+        <v>0.4151489103829484</v>
+      </c>
+      <c r="AZ7">
+        <v>0.7851473297315471</v>
+      </c>
+      <c r="BA7">
+        <v>0.6888615975845565</v>
       </c>
       <c r="BB7">
-        <v>1.135772268788635</v>
+        <v>0.7557091682325497</v>
       </c>
       <c r="BC7">
-        <v>0.7547739363872756</v>
+        <v>0.2865079979349431</v>
+      </c>
+      <c r="BD7">
+        <v>0.3842829937999502</v>
+      </c>
+      <c r="BE7">
+        <v>0.3337151687792957</v>
+      </c>
+      <c r="BF7">
+        <v>0.6260500860692789</v>
+      </c>
+      <c r="BG7">
+        <v>0.5795270988708544</v>
+      </c>
+      <c r="BH7">
+        <v>0.318756753639189</v>
       </c>
       <c r="BI7">
-        <v>0.9645601090908646</v>
+        <v>0.6228119034731664</v>
       </c>
       <c r="BJ7">
-        <v>0.4760223694273585</v>
+        <v>0.3015995486951308</v>
       </c>
       <c r="BK7">
-        <v>0.8535756819428217</v>
+        <v>0.1872232556980508</v>
+      </c>
+      <c r="BL7">
+        <v>0.4165930839192332</v>
+      </c>
+      <c r="BM7">
+        <v>0.4784462374872123</v>
+      </c>
+      <c r="BN7">
+        <v>0.2488999824171091</v>
+      </c>
+      <c r="BO7">
+        <v>1.072391898133331</v>
       </c>
       <c r="BP7">
-        <v>0.4752031198596308</v>
+        <v>0.9925365568938794</v>
+      </c>
+      <c r="BQ7">
+        <v>0.8126313179804746</v>
       </c>
       <c r="BR7">
-        <v>0.4617857877249211</v>
-      </c>
-      <c r="BS7">
-        <v>0.6137097280695207</v>
+        <v>0.5581429965709849</v>
+      </c>
+      <c r="BT7">
+        <v>0.8926429670698124</v>
       </c>
       <c r="BU7">
-        <v>0.9353465278449059</v>
+        <v>0.6987028406080587</v>
       </c>
       <c r="BV7">
-        <v>0.7392408085607407</v>
+        <v>0.3311971340027746</v>
+      </c>
+      <c r="BW7">
+        <v>0.9807062460517404</v>
+      </c>
+      <c r="BX7">
+        <v>0.4850279752853143</v>
+      </c>
+      <c r="BY7">
+        <v>1.153609469978978</v>
+      </c>
+      <c r="BZ7">
+        <v>0.3743890914588086</v>
+      </c>
+      <c r="CA7">
+        <v>0.4786759346660267</v>
+      </c>
+      <c r="CB7">
+        <v>1.258853896334685</v>
+      </c>
+      <c r="CC7">
+        <v>0.8422545893506003</v>
+      </c>
+      <c r="CD7">
+        <v>0.9759700107126867</v>
+      </c>
+      <c r="CE7">
+        <v>0.380512615382218</v>
       </c>
       <c r="CF7">
-        <v>1.29395856915639</v>
+        <v>1.540111385113503</v>
       </c>
       <c r="CG7">
-        <v>1.390320635294491</v>
+        <v>2.355755597427004</v>
       </c>
       <c r="CH7">
-        <v>0.5524740670236852</v>
+        <v>0.7061914161938514</v>
+      </c>
+      <c r="CI7">
+        <v>0.6771541780465671</v>
+      </c>
+      <c r="CK7">
+        <v>1.027823235864378</v>
+      </c>
+      <c r="CL7">
+        <v>0.3506657350518772</v>
+      </c>
+      <c r="CM7">
+        <v>1.443225678608939</v>
+      </c>
+      <c r="CN7">
+        <v>1.659817140306109</v>
+      </c>
+      <c r="CO7">
+        <v>0.8235496322699132</v>
+      </c>
+      <c r="CP7">
+        <v>1.052253061614544</v>
+      </c>
+      <c r="CQ7">
+        <v>1.298901206309901</v>
+      </c>
+      <c r="CR7">
+        <v>0.4797546127666478</v>
+      </c>
+      <c r="CS7">
+        <v>1.794476560552096</v>
+      </c>
+      <c r="CT7">
+        <v>0.2613813155279392</v>
+      </c>
+      <c r="CU7">
+        <v>0.2692484029677673</v>
+      </c>
+      <c r="CV7">
+        <v>0.5946247942779482</v>
       </c>
     </row>
   </sheetData>
